--- a/resources/schedule.xlsx
+++ b/resources/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>11日</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -466,17 +466,494 @@
   </si>
   <si>
     <r>
+      <t>10:30-12:00 CV论文报告1，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈志华</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地点：汇高A厅  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16:15-17:45 EDA论文报告，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+地点：汇高C厅  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14:45-16:15 CAD论文报告2，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缪永伟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地点：花园厅 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14:45-16:15 CG论文报告1，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐岗</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地点：汇高A厅  </t>
+    </r>
+  </si>
+  <si>
+    <t>09:00-09:40   特邀报告     大规模虚拟场景的快速重建技术          报告人：汪国平    主持人：张加万    地点：花园厅</t>
+  </si>
+  <si>
+    <t>09:40-10:20   特邀报告     面向性能的几何造型与设计                 报告人：刘利刚    主持人：秦学英    地点：花园厅</t>
+  </si>
+  <si>
+    <t>13:30-14:10 特邀报告      关于三维可视计算的一些思考                     报告人：童欣                     主持人：冯结青    地点：花园厅</t>
+  </si>
+  <si>
+    <t>14:10-15:10 专题研讨 当图形学遇上深度学习：机遇与挑战               主席：万亮（天津大学）     地点：花园厅</t>
+  </si>
+  <si>
+    <r>
+      <t>09:40-10:20 特邀报告      时空数据可视化与分析                               报告人：袁晓如    主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">待定  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   地点：花园厅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10:30-12:00 CAD论文报告4，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">郑利平
+地点：花园厅 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10:30-12:00 CV论文报告3，主持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">人：李宗民
+地点：汇高A厅   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10:30-12:00  VIS论</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">文报告2，主持人：秦红星
+地点：汇高C厅  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18:00-20:00        晚宴（天津瑞吉金融街酒店美钻宴会厅）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10:30-12:00 CG论文报告3，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈小雕</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地点：汇高A厅 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10:30-12:00 CV论文报告5，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵向军</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">地点：汇高C厅  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15:15-16:45 CG论文报告2，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">柳有权，地点：花园厅 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15:15-16:45 CV论文报告4，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">孙晓鹏， 地点：汇高A厅   </t>
+    </r>
+  </si>
+  <si>
+    <t>16:10-17:00 闭幕式、论文颁奖、下届会议承办方介绍， 地点：报告厅</t>
+  </si>
+  <si>
+    <t>15:30-16:10 企业前沿报告：人工智能在移动端的应用 ArcSoft 资深算法架构师 Alex 博士，地点：报告厅</t>
+  </si>
+  <si>
+    <t>13:30-14:10 特邀报告                                                                    报告人：陈熙霖    主持人：鲍虎军，地点：报告厅</t>
+  </si>
+  <si>
+    <r>
+      <t>09:00-09:40 特邀报告    可解释机器学习：破解AI的思维“黑箱”       报告人：刘世霞   主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">陈谊  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 地点：报告厅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>09:40-10:20 特邀报告    复杂装备多参数关联设计与多性能集成仿真    报告人：刘振宇   主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>待定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">     地点：报告厅</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10:30-12:00 VIS论文报告3，主持人：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时磊</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地点：报告厅</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30-12:00 VIS论文报告1，主持人：毕重科
+地点：汇高C厅  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">09:00-09:40 特邀报告      自优化的绘制流水线优化方法与框架           报告人：王锐       主持人： </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肖春霞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    地点：花园厅</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>10:30-12:00 CAD论文报告1，主持人：</t>
     </r>
     <r>
       <rPr>
         <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张树生</t>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张怡</t>
     </r>
     <r>
       <rPr>
@@ -491,8 +968,12 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>10:30-12:00 VIS论文报告1，主持人：</t>
+    <t xml:space="preserve">16:15-17:45 CAD论文报告3，主持人：牛志彬
+地点：花园厅 </t>
+  </si>
+  <si>
+    <r>
+      <t>16:15-17:45 CV论文报告2，主持人：</t>
     </r>
     <r>
       <rPr>
@@ -502,196 +983,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>待定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-地点：汇高C厅  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10:30-12:00 CV论文报告1，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈志华</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地点：汇高A厅  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16:15-17:45 EDA论文报告，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-地点：汇高C厅  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14:45-16:15 CAD论文报告2，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缪永伟</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地点：花园厅 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14:45-16:15 CG论文报告1，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>徐岗</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地点：汇高A厅  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16:15-17:45 CAD论文报告3，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-地点：花园厅 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>16:15-17:45 CV论文报告2，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 待定</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肖懿</t>
     </r>
     <r>
       <rPr>
@@ -706,347 +1007,14 @@
     </r>
   </si>
   <si>
-    <t>09:00-09:40   特邀报告     大规模虚拟场景的快速重建技术          报告人：汪国平    主持人：张加万    地点：花园厅</t>
-  </si>
-  <si>
-    <t>09:40-10:20   特邀报告     面向性能的几何造型与设计                 报告人：刘利刚    主持人：秦学英    地点：花园厅</t>
-  </si>
-  <si>
-    <t>13:30-14:10 特邀报告      关于三维可视计算的一些思考                     报告人：童欣                     主持人：冯结青    地点：花园厅</t>
-  </si>
-  <si>
-    <t>14:10-15:10 专题研讨 当图形学遇上深度学习：机遇与挑战               主席：万亮（天津大学）     地点：花园厅</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">09:00-09:40 特邀报告      自优化的绘制流水线优化方法与框架           报告人：王锐       主持人： </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    地点：花园厅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>09:40-10:20 特邀报告      时空数据可视化与分析                               报告人：袁晓如    主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">待定  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">   地点：花园厅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10:30-12:00 CAD论文报告4，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">郑利平
-地点：花园厅 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10:30-12:00 CV论文报告3，主持</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">人：李宗民
-地点：汇高A厅   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10:30-12:00  VIS论</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">文报告2，主持人：秦红星
-地点：汇高C厅  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18:00-20:00        晚宴（天津瑞吉金融街酒店美钻宴会厅）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10:30-12:00 CG论文报告3，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈小雕</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地点：汇高A厅 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10:30-12:00 CV论文报告5，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵向军</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">地点：汇高C厅  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15:15-16:45 CG论文报告2，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">柳有权，地点：花园厅 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15:15-16:45 CV论文报告4，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">孙晓鹏， 地点：汇高A厅   </t>
-    </r>
-  </si>
-  <si>
-    <t>16:10-17:00 闭幕式、论文颁奖、下届会议承办方介绍， 地点：报告厅</t>
-  </si>
-  <si>
-    <t>15:30-16:10 企业前沿报告：人工智能在移动端的应用 ArcSoft 资深算法架构师 Alex 博士，地点：报告厅</t>
-  </si>
-  <si>
-    <t>13:30-14:10 特邀报告                                                                    报告人：陈熙霖    主持人：鲍虎军，地点：报告厅</t>
-  </si>
-  <si>
-    <r>
-      <t>09:00-09:40 特邀报告    可解释机器学习：破解AI的思维“黑箱”       报告人：刘世霞   主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">陈谊  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 地点：报告厅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>09:40-10:20 特邀报告    复杂装备多参数关联设计与多性能集成仿真    报告人：刘振宇   主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>待定</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     地点：报告厅</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>10:30-12:00 VIS论文报告3，主持人：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时磊</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地点：报告厅</t>
-    </r>
+    <t>基于高斯混合模型和点到面距离的点云配准算法</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,7 +1083,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -1129,31 +1116,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="18"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,6 +1162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,7 +1423,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1460,8 +1435,36 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1586,94 +1589,70 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1686,6 +1665,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1705,7 +1752,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1986,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" x14ac:dyDescent="0.25"/>
@@ -1996,225 +2043,225 @@
     <col min="4" max="4" width="63" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="80.625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="2:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="55"/>
     </row>
     <row r="5" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="35"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
     </row>
     <row r="8" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="2:8" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="F13" s="57"/>
+      <c r="G13" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="2:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="2:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="24"/>
+      <c r="C16" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="2:8" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="46"/>
+      <c r="G17" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="2:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="2:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="2:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="2:8" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="2:8" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="2:8" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
@@ -2226,242 +2273,242 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="2:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24"/>
+      <c r="C23" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24"/>
+      <c r="C24" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="2:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="2:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="44"/>
+    </row>
+    <row r="28" spans="2:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+      <c r="C28" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="44"/>
+    </row>
+    <row r="29" spans="2:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29"/>
+      <c r="C29" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="2:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="30"/>
+      <c r="C30" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="2:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="2:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="6" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="24"/>
+      <c r="C33" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24"/>
+      <c r="C34" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="25"/>
+      <c r="C35" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="2:8" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="29" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="2:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="30"/>
-    </row>
-    <row r="28" spans="2:8" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="2:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="2:8" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="16"/>
-      <c r="C30" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="2:8" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="24"/>
+      <c r="C38" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="24"/>
+      <c r="C39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="2:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="24"/>
+      <c r="C40" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="2:8" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="2:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="2:8" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="2:8" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -2523,7 +2570,7 @@
     <mergeCell ref="B36:H36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2532,244 +2579,242 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="49"/>
-    <col min="2" max="2" width="79.125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="16" style="49" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="49"/>
+    <col min="2" max="2" width="79.125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56">
+      <c r="A1" s="7">
         <v>16513</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="61" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56">
+      <c r="A2" s="7">
         <v>16534</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56">
+      <c r="A3" s="7">
         <v>16491</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56">
+      <c r="A4" s="7">
         <v>16739</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56">
+      <c r="A5" s="7">
         <v>16703</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56">
+      <c r="A6" s="7">
         <v>16702</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57">
+      <c r="A7" s="8">
         <v>16699</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57">
+      <c r="A8" s="8">
         <v>16644</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="62"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
+      <c r="A9" s="8">
         <v>16630</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="62"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57">
+      <c r="A10" s="8">
         <v>16558</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="62"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57">
+      <c r="A11" s="8">
         <v>16550</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="62"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57">
+      <c r="A12" s="8">
         <v>16533</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="62"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="58">
+      <c r="A13" s="10">
         <v>16522</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="63" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58">
+      <c r="A14" s="10">
         <v>16487</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="63"/>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="58">
+      <c r="A15" s="10">
         <v>16604</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="63"/>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58">
+      <c r="A16" s="10">
         <v>16427</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="63"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="58">
+      <c r="A17" s="10">
         <v>16429</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="63"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58">
+      <c r="A18" s="10">
         <v>16470</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="51"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="59">
+      <c r="C18" s="63"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
         <v>16603</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="59">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
         <v>16694</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="64"/>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59">
+      <c r="A21" s="12">
         <v>16748</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="59">
+      <c r="A22" s="12">
         <v>16676</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="53"/>
-    </row>
-    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="59">
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
         <v>16454</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="53"/>
-    </row>
-    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="59">
+      <c r="C23" s="64"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
         <v>16730</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="53"/>
+      <c r="C24" s="64"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C25" s="55"/>
+      <c r="C25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2789,74 +2834,72 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="57.625" style="55" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="55"/>
+    <col min="2" max="2" width="57.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56">
+      <c r="A1" s="19">
         <v>16631</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="65" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56">
+      <c r="A2" s="19">
         <v>16671</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="56">
+      <c r="A3" s="19">
         <v>16729</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="60"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="56">
+      <c r="C3" s="65"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
         <v>16601</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="60"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="56">
+      <c r="C4" s="65"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="19">
         <v>16588</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="60"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="56">
+      <c r="C5" s="65"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
         <v>16520</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D22" s="55">
+      <c r="D22">
         <v>3</v>
       </c>
     </row>
@@ -2875,214 +2918,212 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="A1:XFD1048576"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="9" style="55"/>
-    <col min="5" max="5" width="30" style="55" customWidth="1"/>
-    <col min="6" max="6" width="19.625" style="55" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="55"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="61">
+      <c r="A1" s="6">
         <v>16718</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="66" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="61">
+      <c r="A2" s="6">
         <v>16628</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="61">
+      <c r="A3" s="6">
         <v>16666</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="61">
+      <c r="A4" s="6">
         <v>16530</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="61">
+      <c r="A5" s="6">
         <v>16562</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="63"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="61">
+      <c r="A6" s="6">
         <v>16643</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="64"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="65">
+      <c r="A7" s="14">
         <v>16713</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="69" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="65">
+      <c r="A8" s="14">
         <v>16690</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="67"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="65">
+      <c r="A9" s="14">
         <v>16634</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="67"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="65">
+      <c r="A10" s="14">
         <v>16554</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="67"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="65">
+      <c r="A11" s="14">
         <v>16547</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="67"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="65">
+      <c r="A12" s="14">
         <v>16514</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="68"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="71"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="69">
+      <c r="A13" s="15">
         <v>16433</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="72" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="69">
+      <c r="A14" s="15">
         <v>16719</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="71"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="73"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="69">
+      <c r="A15" s="15">
         <v>16746</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="71"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="73"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="69">
+      <c r="A16" s="15">
         <v>16765</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="72"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3099,185 +3140,183 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="79.625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="55" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="55"/>
+    <col min="2" max="2" width="79.625" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47">
+      <c r="A1" s="9">
         <v>16430</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="75" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47">
+      <c r="A2" s="9">
         <v>16518</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="75"/>
     </row>
     <row r="3" spans="1:3" ht="21.4" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47">
+      <c r="A3" s="9">
         <v>16528</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="75"/>
     </row>
     <row r="4" spans="1:3" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56">
+      <c r="A4" s="7">
         <v>16680</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="75"/>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47">
+      <c r="A5" s="9">
         <v>16609</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="75"/>
     </row>
     <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47">
+      <c r="A6" s="9">
         <v>16458</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="75"/>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57">
+      <c r="A7" s="8">
         <v>16737</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="57">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>16689</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="74"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
+      <c r="C8" s="76"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>16652</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="74"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="57">
+      <c r="C9" s="76"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>16566</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="74"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="57">
+      <c r="C10" s="76"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
         <v>16557</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="74"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="57">
+      <c r="C11" s="76"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>16555</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="74"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="58">
+      <c r="C12" s="76"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
         <v>16529</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="58">
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
         <v>16515</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="75"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="58">
+      <c r="C14" s="77"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
         <v>16733</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="75"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="58">
+      <c r="C15" s="77"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
         <v>16723</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="75"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="58">
+      <c r="C16" s="77"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
         <v>16494</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="75"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="58">
+      <c r="C17" s="77"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
         <v>16549</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3293,193 +3332,191 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="55"/>
-    <col min="2" max="2" width="69.875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="55" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="55"/>
+    <col min="2" max="2" width="69.875" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="5">
+      <c r="A1" s="16">
         <v>16556</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="65" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="16">
         <v>16725</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="C2" s="65"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="16">
         <v>16479</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="60"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="16">
         <v>16571</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="65"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="16">
         <v>16503</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="65"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6" s="16">
         <v>16586</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="65">
+      <c r="A7" s="14">
         <v>16539</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="79" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="65">
+      <c r="A8" s="14">
         <v>16717</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="79"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="65">
+      <c r="A9" s="14">
         <v>16477</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="79"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="65">
+      <c r="A10" s="14">
         <v>16610</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="79"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="65">
+      <c r="A11" s="14">
         <v>16744</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="79"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="65">
+      <c r="A12" s="14">
         <v>16742</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="79"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="69">
+      <c r="A13" s="15">
         <v>16736</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="80" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="69">
+      <c r="A14" s="15">
         <v>16721</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="80"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="69">
+      <c r="A15" s="15">
         <v>16711</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="77"/>
+      <c r="C15" s="80"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="69">
+      <c r="A16" s="15">
         <v>16706</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="80"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="69">
+      <c r="A17" s="15">
         <v>16613</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="80"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="69">
+      <c r="A18" s="15">
         <v>16612</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="80"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="52">
+      <c r="A19" s="17">
         <v>16482</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="78" t="s">
@@ -3487,105 +3524,113 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="52">
+      <c r="A20" s="17">
         <v>16521</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="78"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="52">
+      <c r="A21" s="17">
         <v>16544</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="78"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="52">
+      <c r="A22" s="17">
         <v>16596</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="78"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="52">
+      <c r="A23" s="17">
         <v>16654</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="78"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="52">
+      <c r="A24" s="17">
         <v>16724</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C24" s="78"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="55">
+      <c r="A25" s="18">
         <v>16741</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="55">
+      <c r="A26">
         <v>16633</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="80"/>
+      <c r="C26" s="82"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="55">
+      <c r="A27">
         <v>16638</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="80"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="55">
+      <c r="C27" s="82"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
         <v>16591</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="80"/>
+      <c r="C28" s="82"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="55">
+      <c r="A29">
         <v>16537</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="80"/>
+      <c r="C29" s="82"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="55">
+      <c r="A30">
         <v>16655</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="80"/>
+      <c r="C30" s="82"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>16472</v>
+      </c>
+      <c r="B31" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
